--- a/natmiOut/OldD4/LR-pairs_lrc2p/Lgi3-Stx1a.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Lgi3-Stx1a.xlsx
@@ -528,16 +528,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.34247788486437</v>
+        <v>1.607064</v>
       </c>
       <c r="H2">
-        <v>1.34247788486437</v>
+        <v>4.821192</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.27683561185029</v>
+        <v>2.383078666666667</v>
       </c>
       <c r="N2">
-        <v>2.27683561185029</v>
+        <v>7.149236</v>
       </c>
       <c r="O2">
-        <v>0.3984856252624405</v>
+        <v>0.3945674126995297</v>
       </c>
       <c r="P2">
-        <v>0.3984856252624405</v>
+        <v>0.4493916190129689</v>
       </c>
       <c r="Q2">
-        <v>3.056601456380651</v>
+        <v>3.829759934368</v>
       </c>
       <c r="R2">
-        <v>3.056601456380651</v>
+        <v>34.467839409312</v>
       </c>
       <c r="S2">
-        <v>0.3984856252624405</v>
+        <v>0.3945674126995297</v>
       </c>
       <c r="T2">
-        <v>0.3984856252624405</v>
+        <v>0.4493916190129689</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.34247788486437</v>
+        <v>1.607064</v>
       </c>
       <c r="H3">
-        <v>1.34247788486437</v>
+        <v>4.821192</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -608,34 +608,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.23493127176852</v>
+        <v>1.446170333333334</v>
       </c>
       <c r="N3">
-        <v>1.23493127176852</v>
+        <v>4.338511</v>
       </c>
       <c r="O3">
-        <v>0.2161343390034682</v>
+        <v>0.2394430761886234</v>
       </c>
       <c r="P3">
-        <v>0.2161343390034682</v>
+        <v>0.2727131238072956</v>
       </c>
       <c r="Q3">
-        <v>1.657867921676669</v>
+        <v>2.324088280568001</v>
       </c>
       <c r="R3">
-        <v>1.657867921676669</v>
+        <v>20.916794525112</v>
       </c>
       <c r="S3">
-        <v>0.2161343390034682</v>
+        <v>0.2394430761886234</v>
       </c>
       <c r="T3">
-        <v>0.2161343390034682</v>
+        <v>0.2727131238072956</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.34247788486437</v>
+        <v>1.607064</v>
       </c>
       <c r="H4">
-        <v>1.34247788486437</v>
+        <v>4.821192</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -670,34 +670,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.20195393215912</v>
+        <v>2.210476</v>
       </c>
       <c r="N4">
-        <v>2.20195393215912</v>
+        <v>4.420952</v>
       </c>
       <c r="O4">
-        <v>0.3853800357340914</v>
+        <v>0.365989511111847</v>
       </c>
       <c r="P4">
-        <v>0.3853800357340914</v>
+        <v>0.2778952571797354</v>
       </c>
       <c r="Q4">
-        <v>2.956074457413758</v>
+        <v>3.552376402464</v>
       </c>
       <c r="R4">
-        <v>2.956074457413758</v>
+        <v>21.314258414784</v>
       </c>
       <c r="S4">
-        <v>0.3853800357340914</v>
+        <v>0.365989511111847</v>
       </c>
       <c r="T4">
-        <v>0.3853800357340914</v>
+        <v>0.2778952571797354</v>
       </c>
     </row>
   </sheetData>
